--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_20-03.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_20-03.xlsx
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
@@ -3319,17 +3322,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>45.5</v>
+        <v>23</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3345,17 +3348,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>116</v>
+        <v>45.5</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3371,17 +3374,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3389,7 +3392,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3397,17 +3400,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3423,17 +3426,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3449,13 +3452,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
@@ -3467,7 +3470,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3475,17 +3478,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3501,13 +3504,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
@@ -3527,17 +3530,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3553,17 +3556,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
-        <v>0.98999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3571,7 +3574,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3579,17 +3582,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
-        <v>0.5</v>
+        <v>0.98999999999999999</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3605,17 +3608,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3631,17 +3634,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3657,17 +3660,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3675,7 +3678,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3683,13 +3686,13 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
@@ -3709,17 +3712,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3735,17 +3738,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3753,7 +3756,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3761,13 +3764,13 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
@@ -3779,7 +3782,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3787,17 +3790,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3805,7 +3808,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3813,17 +3816,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3831,7 +3834,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3839,17 +3842,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3865,13 +3868,13 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
@@ -3891,51 +3894,77 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="114" ht="25.5" customHeight="1">
-      <c r="K114" s="11">
-        <v>6004.6000000000004</v>
-      </c>
-      <c r="L114" s="11"/>
-      <c r="M114" s="11"/>
-      <c r="N114" s="11"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="12">
+    <row r="114" ht="24.75" customHeight="1">
+      <c r="A114" s="6">
+        <v>111</v>
+      </c>
+      <c t="s" r="B114" s="7">
         <v>151</v>
       </c>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c t="s" r="F115" s="13">
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c t="s" r="H114" s="8">
+        <v>146</v>
+      </c>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="9">
+        <v>40</v>
+      </c>
+      <c r="M114" s="9"/>
+      <c r="N114" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" ht="26.25" customHeight="1">
+      <c r="K115" s="11">
+        <v>6027.6000000000004</v>
+      </c>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="12">
         <v>152</v>
       </c>
-      <c r="G115" s="13"/>
-      <c r="H115" s="14"/>
-      <c t="s" r="I115" s="15">
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c t="s" r="F116" s="13">
         <v>153</v>
       </c>
-      <c r="J115" s="15"/>
-      <c r="K115" s="15"/>
-      <c r="L115" s="15"/>
-      <c r="M115" s="15"/>
-      <c r="N115" s="15"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="14"/>
+      <c t="s" r="I116" s="15">
+        <v>154</v>
+      </c>
+      <c r="J116" s="15"/>
+      <c r="K116" s="15"/>
+      <c r="L116" s="15"/>
+      <c r="M116" s="15"/>
+      <c r="N116" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="341">
+  <mergeCells count="344">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4273,10 +4302,13 @@
     <mergeCell ref="B113:G113"/>
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
-    <mergeCell ref="K114:N114"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="I115:N115"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="K115:N115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="I116:N116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
